--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-GSTInformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927F556-4712-4252-8078-33CEFFBCB0DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E550F5-D27B-4E15-B05B-223FAEA7840C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>URL</t>
   </si>
@@ -99,6 +99,69 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.indptechnologies.gstcalculator&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-GSTInformation/master/21.png</t>
   </si>
 </sst>
 </file>
@@ -469,7 +532,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,123 +552,186 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
